--- a/EDMO - List of Materials.xlsx
+++ b/EDMO - List of Materials.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\EDMO\EDMO_GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\PhD\EDMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EDMO BOX" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'EDMO BOX'!$A$2:$C$37</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,10 +138,6 @@
   </si>
   <si>
     <t>*Costs per smallest available purchasing or production unit</t>
-  </si>
-  <si>
-    <t>List of Comonents
-- EDMO 1.0 -</t>
   </si>
   <si>
     <t>Nut DIN 985 - M3</t>
@@ -181,49 +177,53 @@
     </r>
   </si>
   <si>
-    <t>List of Comonents
+    <t>EDMO 1.1 body (PLA)</t>
+  </si>
+  <si>
+    <t>EDMO 1.1 cover (PLA)</t>
+  </si>
+  <si>
+    <t>EDMO 1.1 arm (PLA)</t>
+  </si>
+  <si>
+    <t>EDMO 1.0 body (PLA)</t>
+  </si>
+  <si>
+    <t>EDMO 1.0 cover (PLA)</t>
+  </si>
+  <si>
+    <t>EDMO 1.0 arm (PLA)</t>
+  </si>
+  <si>
+    <t>Screw DIN 912 - M3x16mm</t>
+  </si>
+  <si>
+    <t>Table 2: Parts of one EDMO robot version 1.0</t>
+  </si>
+  <si>
+    <t>Table 3: Parts of one EDMO robot version 1.1</t>
+  </si>
+  <si>
+    <t>Nut DIN 934 - M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washer DIN 125 - 3.2x7 </t>
+  </si>
+  <si>
+    <t>List of Components
+- EDMO 1.0 -</t>
+  </si>
+  <si>
+    <t>List of Components
 - EDMO 1.1 -</t>
-  </si>
-  <si>
-    <t>EDMO 1.1 body (PLA)</t>
-  </si>
-  <si>
-    <t>EDMO 1.1 cover (PLA)</t>
-  </si>
-  <si>
-    <t>EDMO 1.1 arm (PLA)</t>
-  </si>
-  <si>
-    <t>EDMO 1.0 body (PLA)</t>
-  </si>
-  <si>
-    <t>EDMO 1.0 cover (PLA)</t>
-  </si>
-  <si>
-    <t>EDMO 1.0 arm (PLA)</t>
-  </si>
-  <si>
-    <t>Screw DIN 912 - M3x16mm</t>
-  </si>
-  <si>
-    <t>Table 2: Parts of one EDMO robot version 1.0</t>
-  </si>
-  <si>
-    <t>Table 3: Parts of one EDMO robot version 1.1</t>
-  </si>
-  <si>
-    <t>Nut DIN 934 - M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washer DIN 125 - 3.2x7 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -411,7 +411,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -425,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -453,21 +453,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,24 +477,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,6 +490,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,558 +807,558 @@
   </sheetPr>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="26">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
         <v>5.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21">
-        <v>1</v>
-      </c>
-      <c r="C13" s="26">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21">
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="21">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
         <v>15.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="21">
-        <v>1</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="21">
-        <v>1</v>
-      </c>
-      <c r="C17" s="26">
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21">
         <v>15.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="21">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="21">
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="21">
-        <v>1</v>
-      </c>
-      <c r="C20" s="26">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="26">
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="21">
-        <v>1</v>
-      </c>
-      <c r="C22" s="26">
+      <c r="B22" s="16">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="21">
-        <v>1</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21">
         <v>6.8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="21">
-        <v>1</v>
-      </c>
-      <c r="C24" s="26">
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="16">
         <v>2</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="22">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="16">
         <v>3</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="22">
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="21">
-        <v>1</v>
-      </c>
-      <c r="C27" s="26">
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21">
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="16">
         <v>5</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="21">
         <v>3.6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="16">
         <v>3</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="21">
         <v>3.6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="21">
-        <v>1</v>
-      </c>
-      <c r="C30" s="27">
+      <c r="B30" s="16">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22">
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="21">
-        <v>1</v>
-      </c>
-      <c r="C31" s="26">
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="21">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="16">
         <v>3</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="21">
         <v>3.7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="21">
-        <v>1</v>
-      </c>
-      <c r="C34" s="26">
+      <c r="B34" s="16">
+        <v>1</v>
+      </c>
+      <c r="C34" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="21">
-        <v>1</v>
-      </c>
-      <c r="C35" s="26">
+      <c r="B35" s="16">
+        <v>1</v>
+      </c>
+      <c r="C35" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="40" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+    <row r="38" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C50"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C51"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C52"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C53"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C54"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C55"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C56"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="29"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="24"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="29"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="24"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="29"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="24"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="30"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="30"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
-      <c r="C62" s="30"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="30"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="30"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="30"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="25"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="30"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="25"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
-      <c r="C67" s="30"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="25"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
-      <c r="C68" s="30"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
-      <c r="C69" s="30"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="31"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="26"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="31"/>
-    </row>
-    <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="26"/>
+    </row>
+    <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
-      <c r="C77" s="28"/>
-    </row>
-    <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="23"/>
+    </row>
+    <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
-      <c r="C78" s="28"/>
-    </row>
-    <row r="79" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="23"/>
+    </row>
+    <row r="79" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
-      <c r="C79" s="28"/>
-    </row>
-    <row r="80" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="23"/>
+    </row>
+    <row r="80" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
-      <c r="C80" s="28"/>
-    </row>
-    <row r="81" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="23"/>
+    </row>
+    <row r="81" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
-      <c r="C81" s="28"/>
-    </row>
-    <row r="82" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
-      <c r="C82" s="28"/>
-    </row>
-    <row r="83" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="23"/>
+    </row>
+    <row r="83" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
-      <c r="C83" s="28"/>
-    </row>
-    <row r="84" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="23"/>
+    </row>
+    <row r="84" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
-      <c r="C84" s="28"/>
-    </row>
-    <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="23"/>
+    </row>
+    <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
-      <c r="C85" s="28"/>
-    </row>
-    <row r="86" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="23"/>
+    </row>
+    <row r="86" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
-      <c r="C86" s="28"/>
-    </row>
-    <row r="87" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="23"/>
+    </row>
+    <row r="87" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
-      <c r="C87" s="28"/>
-    </row>
-    <row r="88" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="23"/>
+    </row>
+    <row r="88" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
-      <c r="C88" s="28"/>
+      <c r="C88" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1378,49 +1378,49 @@
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-    </row>
-    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-    </row>
-    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+    </row>
+    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
@@ -1428,75 +1428,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="21">
+      <c r="C17" s="16">
         <v>2</v>
       </c>
     </row>
@@ -1515,49 +1515,49 @@
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-    </row>
-    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-    </row>
-    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+    </row>
+    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
@@ -1565,75 +1565,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="21">
+    <row r="15" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="21">
+    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="16">
         <v>2</v>
       </c>
     </row>
